--- a/treatChamVvT.xlsx
+++ b/treatChamVvT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57B0244-3862-4AA0-8220-3F01B4720751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C5097-BF0F-41F5-A7CB-E0DE36A79A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2049E208-3B41-44BC-AD2B-A38289E34FC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>empty cup mass</t>
   </si>
@@ -52,15 +52,25 @@
   <si>
     <t>cup2</t>
   </si>
+  <si>
+    <t>This data collected before integration of treatment chamber insert. Bottom film contact with heat spreader may be variable across cups</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A650250E-8208-4493-A497-38AD4EE77D9E}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +916,11 @@
       </c>
       <c r="T5">
         <v>8.3625000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
